--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinaj\Eclipse Project\OpsVedaAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D965DADD-31A1-45D6-B1A6-B0B0159752C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F2BA9-4BC4-4584-9A2F-C5DD94D88AE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1500" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>URL</t>
   </si>
@@ -46,16 +46,22 @@
     <t>https://ovc.opsvedadev.opsveda.com:4302/sap/hana/xs/formLogin/login.html?x-sap-origin-location=%2FOpsVeda_new%2F%3F</t>
   </si>
   <si>
-    <t>ppatro</t>
-  </si>
-  <si>
-    <t>Test123456</t>
-  </si>
-  <si>
     <t>Browser setting URL</t>
   </si>
   <si>
     <t>chrome://settings/clearBrowserData</t>
+  </si>
+  <si>
+    <t>wrongusername</t>
+  </si>
+  <si>
+    <t>wrongpassword</t>
+  </si>
+  <si>
+    <t>Pinaj#132</t>
+  </si>
+  <si>
+    <t>OVC_SELENIUM</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D61D60C-1625-49A7-92C3-522CB46C5F3F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +455,26 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9447DE21-3142-41FA-A03C-5E815187F34F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -475,12 +497,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinaj\Eclipse Project\OpsVedaAutomation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F2BA9-4BC4-4584-9A2F-C5DD94D88AE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F25CC70-33A1-4247-AD20-24CF3FCA3FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Browser setting URL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,10 +430,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F25CC70-33A1-4247-AD20-24CF3FCA3FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{903A7133-526D-4202-82AA-CDE12BC2052B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -54,10 +48,10 @@
     <t>wrongpassword</t>
   </si>
   <si>
-    <t>Pinaj#132</t>
-  </si>
-  <si>
     <t>OVC_SELENIUM</t>
+  </si>
+  <si>
+    <t>Test123456</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,12 +459,12 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{903A7133-526D-4202-82AA-CDE12BC2052B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\OpsVeda\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7814FD8-7B57-4600-8459-68D1D3EB328B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA6705C7-D248-4EC0-83F8-9014E5C20A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Browser setting URL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,11 +428,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="118.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
